--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201210_DLCaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201210_DLCaoAnhVuong.xlsx
@@ -788,6 +788,72 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,72 +919,6 @@
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1305,94 +1305,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="63" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -1490,16 +1490,16 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="A13" s="56">
         <v>1</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="54">
         <v>864811036959786</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="52" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="43" t="s">
@@ -1523,14 +1523,14 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="77" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="48" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1548,22 +1548,22 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="56">
         <v>2</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="54">
         <v>866192037774328</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="48" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1581,11 +1581,11 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="85" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="49" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1594,10 +1594,10 @@
       <c r="G16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="50">
         <v>1</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="51">
         <v>10000</v>
       </c>
       <c r="J16" s="45">
@@ -1606,20 +1606,22 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="79" t="s">
+      <c r="A17" s="56">
+        <v>3</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="54">
         <v>862631039276836</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -1637,11 +1639,11 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="85" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="49" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1650,10 +1652,10 @@
       <c r="G18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="50">
         <v>1</v>
       </c>
-      <c r="I18" s="87">
+      <c r="I18" s="51">
         <v>10000</v>
       </c>
       <c r="J18" s="45">
@@ -1662,11 +1664,11 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="85" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="49" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1675,42 +1677,42 @@
       <c r="G19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="50">
         <v>1</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="51">
         <v>50000</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="51">
         <v>50000</v>
       </c>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="85"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="87"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="45"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="46">
         <f>SUM(J13:J20)</f>
         <v>130000</v>
@@ -1732,9 +1734,9 @@
     </row>
     <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -1745,34 +1747,34 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="71" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="35"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -1830,20 +1832,20 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1921,25 +1923,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="30">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="B23:D24"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1951,6 +1934,25 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="baohanh@vn-et.com"/>
